--- a/origin-board-data/ccpc/2020/秦皇岛/raw/CCPC2020-参赛队伍数据.xlsx
+++ b/origin-board-data/ccpc/2020/秦皇岛/raw/CCPC2020-参赛队伍数据.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xingblog\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6F9F831-5F6C-46EE-8189-D4787AF8175E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{04E2F25A-CAF1-43E0-B97B-A5F465B786D6}"/>
+    <workbookView windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet8" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195">
   <si>
     <t>比赛</t>
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学校</t>
   </si>
   <si>
     <t>队名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>秦皇岛</t>
@@ -3617,33 +3604,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3651,9 +3973,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3662,17 +4226,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3721,7 +4329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3754,26 +4362,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3806,23 +4397,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3964,32 +4538,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22235D6C-2E50-41D8-89FE-7DF575B979AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="G487" sqref="G487"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.79464285714286" customWidth="1"/>
+    <col min="3" max="3" width="25.1339285714286" customWidth="1"/>
+    <col min="4" max="4" width="35.1339285714286" customWidth="1"/>
+    <col min="5" max="5" width="8.79464285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4006,7 +4575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4023,7 +4592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4040,7 +4609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4057,7 +4626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4074,7 +4643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4091,7 +4660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +4677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4125,7 +4694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4142,7 +4711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4159,7 +4728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4176,7 +4745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4193,7 +4762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4210,7 +4779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4227,7 +4796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -4244,7 +4813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -4261,7 +4830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -4278,7 +4847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -4295,7 +4864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4312,7 +4881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4329,7 +4898,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4346,7 +4915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -4363,7 +4932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -4380,7 +4949,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -4397,7 +4966,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -4414,7 +4983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -4431,7 +5000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -4448,7 +5017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -4465,7 +5034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -4482,7 +5051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -4499,7 +5068,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -4516,7 +5085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -4533,7 +5102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -4550,7 +5119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -4567,7 +5136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -4584,7 +5153,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -4601,7 +5170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -4618,7 +5187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -4635,7 +5204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -4652,7 +5221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -4669,7 +5238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -4686,7 +5255,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -4703,7 +5272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4720,7 +5289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -4737,7 +5306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -4754,7 +5323,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -4771,7 +5340,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -4788,7 +5357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -4805,7 +5374,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -4822,7 +5391,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -4839,7 +5408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -4856,7 +5425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -4873,7 +5442,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -4890,7 +5459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -4907,7 +5476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -4924,7 +5493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4941,7 +5510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -4958,7 +5527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -4975,7 +5544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4992,7 +5561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -5009,7 +5578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -5026,7 +5595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -5043,7 +5612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -5060,7 +5629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -5077,7 +5646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -5094,7 +5663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -5111,7 +5680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -5128,7 +5697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -5145,7 +5714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -5162,7 +5731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -5179,7 +5748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -5196,7 +5765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -5213,7 +5782,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -5230,7 +5799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -5247,7 +5816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -5264,7 +5833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -5281,7 +5850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -5298,7 +5867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -5315,7 +5884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -5332,7 +5901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -5349,7 +5918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -5366,7 +5935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -5383,7 +5952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -5400,7 +5969,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -5417,7 +5986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -5434,7 +6003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -5451,7 +6020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -5468,7 +6037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -5485,7 +6054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -5502,7 +6071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -5519,7 +6088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>12</v>
       </c>
@@ -5536,7 +6105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -5553,7 +6122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -5570,7 +6139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -5587,7 +6156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -5604,7 +6173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -5621,7 +6190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -5638,7 +6207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -5655,7 +6224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -5672,7 +6241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -5689,7 +6258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -5706,7 +6275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>12</v>
       </c>
@@ -5723,7 +6292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>12</v>
       </c>
@@ -5740,7 +6309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -5757,7 +6326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -5774,7 +6343,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -5791,7 +6360,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -5808,7 +6377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -5825,7 +6394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -5842,7 +6411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>12</v>
       </c>
@@ -5859,7 +6428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>12</v>
       </c>
@@ -5876,7 +6445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -5893,7 +6462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -5910,7 +6479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>12</v>
       </c>
@@ -5927,7 +6496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -5944,7 +6513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -5961,7 +6530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -5978,7 +6547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -5995,7 +6564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -6012,7 +6581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -6029,7 +6598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -6046,7 +6615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -6063,7 +6632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -6080,7 +6649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -6097,7 +6666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -6114,7 +6683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -6131,7 +6700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -6148,7 +6717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -6165,7 +6734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -6182,7 +6751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -6199,7 +6768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -6216,7 +6785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -6233,7 +6802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -6250,7 +6819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -6267,7 +6836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>12</v>
       </c>
@@ -6281,10 +6850,10 @@
         <v>316</v>
       </c>
       <c r="E135" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -6301,7 +6870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -6318,7 +6887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -6335,7 +6904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5">
       <c r="A139" t="s">
         <v>12</v>
       </c>
@@ -6352,7 +6921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -6369,7 +6938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -6386,7 +6955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -6400,10 +6969,10 @@
         <v>333</v>
       </c>
       <c r="E142" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -6420,7 +6989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -6437,7 +7006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -6454,7 +7023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -6471,7 +7040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -6488,7 +7057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -6505,7 +7074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -6522,7 +7091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -6539,7 +7108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -6556,7 +7125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -6573,7 +7142,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -6590,7 +7159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -6607,7 +7176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -6624,7 +7193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -6641,7 +7210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -6658,7 +7227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -6675,7 +7244,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:5">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -6692,7 +7261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -6709,7 +7278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -6726,7 +7295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -6743,7 +7312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -6760,7 +7329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -6777,7 +7346,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -6794,7 +7363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>12</v>
       </c>
@@ -6811,7 +7380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -6828,7 +7397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -6845,7 +7414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -6862,7 +7431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -6879,7 +7448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -6896,7 +7465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -6913,7 +7482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -6930,7 +7499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>12</v>
       </c>
@@ -6947,7 +7516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -6964,7 +7533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -6981,7 +7550,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -6998,7 +7567,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -7015,7 +7584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:5">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -7032,7 +7601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -7049,7 +7618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -7066,7 +7635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -7083,7 +7652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -7100,7 +7669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -7117,7 +7686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -7134,7 +7703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>12</v>
       </c>
@@ -7151,7 +7720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>12</v>
       </c>
@@ -7168,7 +7737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -7185,7 +7754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -7202,7 +7771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>12</v>
       </c>
@@ -7219,7 +7788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>12</v>
       </c>
@@ -7236,7 +7805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -7253,7 +7822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -7270,7 +7839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>12</v>
       </c>
@@ -7287,7 +7856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -7304,7 +7873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -7321,7 +7890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -7338,7 +7907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>12</v>
       </c>
@@ -7355,7 +7924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -7372,7 +7941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -7389,7 +7958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -7406,7 +7975,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>12</v>
       </c>
@@ -7423,7 +7992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>12</v>
       </c>
@@ -7440,7 +8009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -7457,7 +8026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>12</v>
       </c>
@@ -7474,7 +8043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -7491,7 +8060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -7508,7 +8077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -7525,7 +8094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -7542,7 +8111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>12</v>
       </c>
@@ -7559,7 +8128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -7576,7 +8145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -7593,7 +8162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -7610,7 +8179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>12</v>
       </c>
@@ -7627,7 +8196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>12</v>
       </c>
@@ -7644,7 +8213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -7661,7 +8230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -7678,7 +8247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -7695,7 +8264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>12</v>
       </c>
@@ -7712,7 +8281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -7729,7 +8298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -7746,7 +8315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -7763,7 +8332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -7780,7 +8349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -7797,7 +8366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -7814,7 +8383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -7831,7 +8400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>12</v>
       </c>
@@ -7848,7 +8417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>12</v>
       </c>
@@ -7865,7 +8434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -7882,7 +8451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -7899,7 +8468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -7916,7 +8485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -7933,7 +8502,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:5">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -7950,7 +8519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:5">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -7967,7 +8536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:5">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -7984,7 +8553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:5">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -8001,7 +8570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -8018,7 +8587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -8035,7 +8604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>12</v>
       </c>
@@ -8052,7 +8621,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -8069,7 +8638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -8086,7 +8655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>12</v>
       </c>
@@ -8103,7 +8672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:5">
       <c r="A243" t="s">
         <v>12</v>
       </c>
@@ -8120,7 +8689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:5">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -8137,7 +8706,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:5">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -8154,7 +8723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -8171,7 +8740,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>12</v>
       </c>
@@ -8188,7 +8757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>12</v>
       </c>
@@ -8205,7 +8774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -8222,7 +8791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -8239,7 +8808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:5">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -8256,7 +8825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:5">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -8273,7 +8842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:5">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -8290,7 +8859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -8307,7 +8876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>12</v>
       </c>
@@ -8324,7 +8893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -8341,7 +8910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:5">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -8358,7 +8927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>12</v>
       </c>
@@ -8375,7 +8944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:5">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -8392,7 +8961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:5">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -8409,7 +8978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -8426,7 +8995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>12</v>
       </c>
@@ -8443,7 +9012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -8460,7 +9029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -8477,7 +9046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -8494,7 +9063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>12</v>
       </c>
@@ -8511,7 +9080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>12</v>
       </c>
@@ -8528,7 +9097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:5">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -8545,7 +9114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:5">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -8562,7 +9131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:5">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -8579,7 +9148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:5">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -8596,7 +9165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:5">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -8613,7 +9182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -8630,7 +9199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>12</v>
       </c>
@@ -8647,7 +9216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>12</v>
       </c>
@@ -8664,7 +9233,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -8681,7 +9250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:5">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -8698,7 +9267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:5">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -8715,7 +9284,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:5">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -8732,7 +9301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -8749,7 +9318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -8766,7 +9335,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>12</v>
       </c>
@@ -8783,7 +9352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -8800,7 +9369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -8817,7 +9386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -8834,7 +9403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -8851,7 +9420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>12</v>
       </c>
@@ -8868,7 +9437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -8885,7 +9454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -8902,7 +9471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>12</v>
       </c>
@@ -8919,7 +9488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -8936,7 +9505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>12</v>
       </c>
@@ -8953,7 +9522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -8970,7 +9539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -8987,7 +9556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:5">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -9004,7 +9573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:5">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -9021,7 +9590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:5">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -9038,7 +9607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -9055,7 +9624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:5">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -9072,7 +9641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -9089,7 +9658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -9106,7 +9675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -9123,7 +9692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -9140,7 +9709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -9157,7 +9726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -9174,7 +9743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -9191,7 +9760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>12</v>
       </c>
@@ -9208,7 +9777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -9225,7 +9794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -9242,7 +9811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -9259,7 +9828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>12</v>
       </c>
@@ -9276,7 +9845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -9293,7 +9862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -9310,7 +9879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -9327,7 +9896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -9344,7 +9913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -9361,7 +9930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>12</v>
       </c>
@@ -9378,7 +9947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>5</v>
       </c>
@@ -9395,7 +9964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -9412,7 +9981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>12</v>
       </c>
@@ -9429,7 +9998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -9446,7 +10015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>12</v>
       </c>
@@ -9463,7 +10032,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -9480,7 +10049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -9497,7 +10066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>12</v>
       </c>
@@ -9514,7 +10083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>12</v>
       </c>
@@ -9531,7 +10100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:5">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -9548,7 +10117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:5">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -9565,7 +10134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>5</v>
       </c>
@@ -9582,7 +10151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:5">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -9599,7 +10168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>12</v>
       </c>
@@ -9616,7 +10185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>12</v>
       </c>
@@ -9633,7 +10202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -9650,7 +10219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -9667,7 +10236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -9684,7 +10253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -9701,7 +10270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>12</v>
       </c>
@@ -9718,7 +10287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>12</v>
       </c>
@@ -9735,7 +10304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>12</v>
       </c>
@@ -9752,7 +10321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -9769,7 +10338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>12</v>
       </c>
@@ -9786,7 +10355,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>12</v>
       </c>
@@ -9803,7 +10372,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>12</v>
       </c>
@@ -9820,7 +10389,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>12</v>
       </c>
@@ -9837,7 +10406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>12</v>
       </c>
@@ -9854,7 +10423,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>12</v>
       </c>
@@ -9871,7 +10440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>12</v>
       </c>
@@ -9888,7 +10457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:5">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -9905,7 +10474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:5">
       <c r="A349" t="s">
         <v>12</v>
       </c>
@@ -9922,7 +10491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:5">
       <c r="A350" t="s">
         <v>12</v>
       </c>
@@ -9939,7 +10508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -9956,7 +10525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>12</v>
       </c>
@@ -9973,7 +10542,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>12</v>
       </c>
@@ -9990,7 +10559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -10007,7 +10576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>5</v>
       </c>
@@ -10024,7 +10593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>5</v>
       </c>
@@ -10041,7 +10610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>12</v>
       </c>
@@ -10058,7 +10627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>12</v>
       </c>
@@ -10075,7 +10644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -10092,7 +10661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>12</v>
       </c>
@@ -10109,7 +10678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:5">
       <c r="A361" t="s">
         <v>12</v>
       </c>
@@ -10126,7 +10695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:5">
       <c r="A362" t="s">
         <v>5</v>
       </c>
@@ -10143,7 +10712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:5">
       <c r="A363" t="s">
         <v>5</v>
       </c>
@@ -10160,7 +10729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:5">
       <c r="A364" t="s">
         <v>5</v>
       </c>
@@ -10177,7 +10746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:5">
       <c r="A365" t="s">
         <v>5</v>
       </c>
@@ -10194,7 +10763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:5">
       <c r="A366" t="s">
         <v>12</v>
       </c>
@@ -10211,7 +10780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -10228,7 +10797,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>5</v>
       </c>
@@ -10245,7 +10814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:5">
       <c r="A369" t="s">
         <v>12</v>
       </c>
@@ -10262,7 +10831,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:5">
       <c r="A370" t="s">
         <v>5</v>
       </c>
@@ -10279,7 +10848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:5">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -10296,7 +10865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:5">
       <c r="A372" t="s">
         <v>12</v>
       </c>
@@ -10313,7 +10882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:5">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -10330,7 +10899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:5">
       <c r="A374" t="s">
         <v>12</v>
       </c>
@@ -10347,7 +10916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:5">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -10364,7 +10933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:5">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -10381,7 +10950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:5">
       <c r="A377" t="s">
         <v>12</v>
       </c>
@@ -10398,7 +10967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:5">
       <c r="A378" t="s">
         <v>12</v>
       </c>
@@ -10415,7 +10984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:5">
       <c r="A379" t="s">
         <v>12</v>
       </c>
@@ -10432,7 +11001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:5">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -10449,7 +11018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:5">
       <c r="A381" t="s">
         <v>5</v>
       </c>
@@ -10466,7 +11035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:5">
       <c r="A382" t="s">
         <v>12</v>
       </c>
@@ -10483,7 +11052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:5">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -10500,7 +11069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:5">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -10517,7 +11086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:5">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -10534,7 +11103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:5">
       <c r="A386" t="s">
         <v>12</v>
       </c>
@@ -10551,7 +11120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:5">
       <c r="A387" t="s">
         <v>12</v>
       </c>
@@ -10568,7 +11137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:5">
       <c r="A388" t="s">
         <v>5</v>
       </c>
@@ -10585,7 +11154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:5">
       <c r="A389" t="s">
         <v>12</v>
       </c>
@@ -10602,7 +11171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:5">
       <c r="A390" t="s">
         <v>12</v>
       </c>
@@ -10619,7 +11188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:5">
       <c r="A391" t="s">
         <v>12</v>
       </c>
@@ -10636,7 +11205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:5">
       <c r="A392" t="s">
         <v>12</v>
       </c>
@@ -10653,7 +11222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:5">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -10670,7 +11239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:5">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -10687,7 +11256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:5">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -10704,7 +11273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:5">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -10721,7 +11290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:5">
       <c r="A397" t="s">
         <v>12</v>
       </c>
@@ -10738,7 +11307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:5">
       <c r="A398" t="s">
         <v>12</v>
       </c>
@@ -10755,7 +11324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:5">
       <c r="A399" t="s">
         <v>12</v>
       </c>
@@ -10772,7 +11341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:5">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -10789,7 +11358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:5">
       <c r="A401" t="s">
         <v>12</v>
       </c>
@@ -10806,7 +11375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:5">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -10823,7 +11392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:5">
       <c r="A403" t="s">
         <v>12</v>
       </c>
@@ -10840,7 +11409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:5">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -10857,7 +11426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:5">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -10874,7 +11443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:5">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -10891,7 +11460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:5">
       <c r="A407" t="s">
         <v>12</v>
       </c>
@@ -10908,7 +11477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:5">
       <c r="A408" t="s">
         <v>12</v>
       </c>
@@ -10925,7 +11494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:5">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -10942,7 +11511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:5">
       <c r="A410" t="s">
         <v>12</v>
       </c>
@@ -10959,7 +11528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:5">
       <c r="A411" t="s">
         <v>12</v>
       </c>
@@ -10976,7 +11545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:5">
       <c r="A412" t="s">
         <v>12</v>
       </c>
@@ -10993,7 +11562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:5">
       <c r="A413" t="s">
         <v>5</v>
       </c>
@@ -11010,7 +11579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:5">
       <c r="A414" t="s">
         <v>12</v>
       </c>
@@ -11027,7 +11596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:5">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -11044,7 +11613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:5">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -11061,7 +11630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:5">
       <c r="A417" t="s">
         <v>12</v>
       </c>
@@ -11078,7 +11647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:5">
       <c r="A418" t="s">
         <v>5</v>
       </c>
@@ -11095,7 +11664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:5">
       <c r="A419" t="s">
         <v>12</v>
       </c>
@@ -11112,7 +11681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:5">
       <c r="A420" t="s">
         <v>12</v>
       </c>
@@ -11129,7 +11698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:5">
       <c r="A421" t="s">
         <v>12</v>
       </c>
@@ -11146,7 +11715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:5">
       <c r="A422" t="s">
         <v>12</v>
       </c>
@@ -11163,7 +11732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:5">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -11180,7 +11749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:5">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -11197,7 +11766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:5">
       <c r="A425" t="s">
         <v>12</v>
       </c>
@@ -11214,7 +11783,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:5">
       <c r="A426" t="s">
         <v>12</v>
       </c>
@@ -11231,7 +11800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:5">
       <c r="A427" t="s">
         <v>12</v>
       </c>
@@ -11248,7 +11817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:5">
       <c r="A428" t="s">
         <v>5</v>
       </c>
@@ -11265,7 +11834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:5">
       <c r="A429" t="s">
         <v>5</v>
       </c>
@@ -11282,7 +11851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:5">
       <c r="A430" t="s">
         <v>5</v>
       </c>
@@ -11299,7 +11868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:5">
       <c r="A431" t="s">
         <v>12</v>
       </c>
@@ -11316,7 +11885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:5">
       <c r="A432" t="s">
         <v>5</v>
       </c>
@@ -11333,7 +11902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:5">
       <c r="A433" t="s">
         <v>12</v>
       </c>
@@ -11350,7 +11919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:5">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -11367,7 +11936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:5">
       <c r="A435" t="s">
         <v>12</v>
       </c>
@@ -11384,7 +11953,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:5">
       <c r="A436" t="s">
         <v>12</v>
       </c>
@@ -11401,7 +11970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:5">
       <c r="A437" t="s">
         <v>12</v>
       </c>
@@ -11418,7 +11987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:5">
       <c r="A438" t="s">
         <v>12</v>
       </c>
@@ -11435,7 +12004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:5">
       <c r="A439" t="s">
         <v>12</v>
       </c>
@@ -11452,7 +12021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:5">
       <c r="A440" t="s">
         <v>12</v>
       </c>
@@ -11469,7 +12038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:5">
       <c r="A441" t="s">
         <v>5</v>
       </c>
@@ -11486,7 +12055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:5">
       <c r="A442" t="s">
         <v>12</v>
       </c>
@@ -11503,7 +12072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:5">
       <c r="A443" t="s">
         <v>12</v>
       </c>
@@ -11520,7 +12089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:5">
       <c r="A444" t="s">
         <v>12</v>
       </c>
@@ -11537,7 +12106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:5">
       <c r="A445" t="s">
         <v>12</v>
       </c>
@@ -11554,7 +12123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:5">
       <c r="A446" t="s">
         <v>12</v>
       </c>
@@ -11571,7 +12140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:5">
       <c r="A447" t="s">
         <v>12</v>
       </c>
@@ -11588,7 +12157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:5">
       <c r="A448" t="s">
         <v>5</v>
       </c>
@@ -11605,7 +12174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:5">
       <c r="A449" t="s">
         <v>5</v>
       </c>
@@ -11622,7 +12191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:5">
       <c r="A450" t="s">
         <v>5</v>
       </c>
@@ -11639,7 +12208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:5">
       <c r="A451" t="s">
         <v>12</v>
       </c>
@@ -11656,7 +12225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:5">
       <c r="A452" t="s">
         <v>12</v>
       </c>
@@ -11673,7 +12242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:5">
       <c r="A453" t="s">
         <v>12</v>
       </c>
@@ -11690,7 +12259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:5">
       <c r="A454" t="s">
         <v>12</v>
       </c>
@@ -11707,7 +12276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:5">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -11724,7 +12293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:5">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -11741,7 +12310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:5">
       <c r="A457" t="s">
         <v>12</v>
       </c>
@@ -11758,7 +12327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:5">
       <c r="A458" t="s">
         <v>12</v>
       </c>
@@ -11775,7 +12344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:5">
       <c r="A459" t="s">
         <v>12</v>
       </c>
@@ -11792,7 +12361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:5">
       <c r="A460" t="s">
         <v>12</v>
       </c>
@@ -11809,7 +12378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:5">
       <c r="A461" t="s">
         <v>5</v>
       </c>
@@ -11826,7 +12395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:5">
       <c r="A462" t="s">
         <v>5</v>
       </c>
@@ -11843,7 +12412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:5">
       <c r="A463" t="s">
         <v>12</v>
       </c>
@@ -11860,7 +12429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:5">
       <c r="A464" t="s">
         <v>12</v>
       </c>
@@ -11877,7 +12446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:5">
       <c r="A465" t="s">
         <v>12</v>
       </c>
@@ -11894,7 +12463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:5">
       <c r="A466" t="s">
         <v>5</v>
       </c>
@@ -11911,7 +12480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:5">
       <c r="A467" t="s">
         <v>5</v>
       </c>
@@ -11928,7 +12497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:5">
       <c r="A468" t="s">
         <v>12</v>
       </c>
@@ -11945,7 +12514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:5">
       <c r="A469" t="s">
         <v>12</v>
       </c>
@@ -11962,7 +12531,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:5">
       <c r="A470" t="s">
         <v>12</v>
       </c>
@@ -11979,7 +12548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:5">
       <c r="A471" t="s">
         <v>5</v>
       </c>
@@ -11996,7 +12565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:5">
       <c r="A472" t="s">
         <v>5</v>
       </c>
@@ -12013,7 +12582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:5">
       <c r="A473" t="s">
         <v>12</v>
       </c>
@@ -12030,7 +12599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:5">
       <c r="A474" t="s">
         <v>12</v>
       </c>
@@ -12047,7 +12616,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:5">
       <c r="A475" t="s">
         <v>12</v>
       </c>
@@ -12064,7 +12633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:5">
       <c r="A476" t="s">
         <v>12</v>
       </c>
@@ -12081,7 +12650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:5">
       <c r="A477" t="s">
         <v>12</v>
       </c>
@@ -12098,7 +12667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:5">
       <c r="A478" t="s">
         <v>12</v>
       </c>
@@ -12115,7 +12684,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:5">
       <c r="A479" t="s">
         <v>12</v>
       </c>
@@ -12132,7 +12701,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:5">
       <c r="A480" t="s">
         <v>12</v>
       </c>
@@ -12149,7 +12718,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:5">
       <c r="A481" t="s">
         <v>12</v>
       </c>
@@ -12166,7 +12735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:5">
       <c r="A482" t="s">
         <v>12</v>
       </c>
@@ -12183,7 +12752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:5">
       <c r="A483" t="s">
         <v>5</v>
       </c>
@@ -12200,7 +12769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:5">
       <c r="A484" t="s">
         <v>12</v>
       </c>
@@ -12217,7 +12786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:5">
       <c r="A485" t="s">
         <v>12</v>
       </c>
@@ -12234,7 +12803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:5">
       <c r="A486" t="s">
         <v>5</v>
       </c>
@@ -12251,7 +12820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:5">
       <c r="A487" t="s">
         <v>5</v>
       </c>
@@ -12268,7 +12837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:5">
       <c r="A488" t="s">
         <v>5</v>
       </c>
@@ -12285,7 +12854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:5">
       <c r="A489" t="s">
         <v>5</v>
       </c>
@@ -12302,7 +12871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:5">
       <c r="A490" t="s">
         <v>12</v>
       </c>
@@ -12319,7 +12888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:5">
       <c r="A491" t="s">
         <v>12</v>
       </c>
@@ -12336,7 +12905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:5">
       <c r="A492" t="s">
         <v>12</v>
       </c>
@@ -12353,7 +12922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:5">
       <c r="A493" t="s">
         <v>12</v>
       </c>
@@ -12370,7 +12939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:5">
       <c r="A494" t="s">
         <v>5</v>
       </c>
@@ -12387,7 +12956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:5">
       <c r="A495" t="s">
         <v>12</v>
       </c>
@@ -12404,7 +12973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:5">
       <c r="A496" t="s">
         <v>5</v>
       </c>
@@ -12421,7 +12990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:5">
       <c r="A497" t="s">
         <v>5</v>
       </c>
@@ -12438,7 +13007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:5">
       <c r="A498" t="s">
         <v>12</v>
       </c>
@@ -12455,7 +13024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:5">
       <c r="A499" t="s">
         <v>12</v>
       </c>
@@ -12472,7 +13041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:5">
       <c r="A500" t="s">
         <v>12</v>
       </c>
@@ -12489,7 +13058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:5">
       <c r="A501" t="s">
         <v>12</v>
       </c>
@@ -12506,7 +13075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:5">
       <c r="A502" t="s">
         <v>12</v>
       </c>
@@ -12523,7 +13092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:5">
       <c r="A503" t="s">
         <v>12</v>
       </c>
@@ -12540,7 +13109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:5">
       <c r="A504" t="s">
         <v>12</v>
       </c>
@@ -12558,7 +13127,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>